--- a/Wprowadzenie do informatyki/003.xlsx
+++ b/Wprowadzenie do informatyki/003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Studia\Wprowadzenie do informatyki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9A8075A-EFB6-4EE1-BBDA-58736963ED70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADADE1-0B07-43D6-BDF6-E0D10A4D64C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B68DB48E-5E59-4B07-8B43-C15484711906}"/>
   </bookViews>
@@ -228,7 +228,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -639,7 +639,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -1036,7 +1036,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -1432,7 +1433,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
@@ -4452,8 +4454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D802D2A-5B17-4483-8377-421B06EC8E2C}">
   <dimension ref="B2:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
